--- a/Progress Report.xlsx
+++ b/Progress Report.xlsx
@@ -76,7 +76,7 @@
     <t xml:space="preserve">Search Component to preferd for our stm32 board and  contact with component dealer.</t>
   </si>
   <si>
-    <t xml:space="preserve">can </t>
+    <t xml:space="preserve">Reading about temperature sensor LM32 and DS18B20 Water proof tempearature sensor</t>
   </si>
 </sst>
 </file>
@@ -342,11 +342,11 @@
   </sheetPr>
   <dimension ref="A1:E34"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A9" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D20" activeCellId="0" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.5390625" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.11"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="44.44"/>
